--- a/1129/worst-L.xlsx
+++ b/1129/worst-L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takedakiyoshi/lab/kline/KLINE/1129/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAC44D7-1DB5-8847-BB60-3ADDB531CE14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427EF593-4FFE-7E47-B4BC-B332062C2509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="500" windowWidth="21120" windowHeight="14920" xr2:uid="{7CC73CB4-CDDD-EC44-B32E-84A35A9C188A}"/>
+    <workbookView xWindow="620" yWindow="1340" windowWidth="16620" windowHeight="14920" xr2:uid="{7CC73CB4-CDDD-EC44-B32E-84A35A9C188A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,13 +80,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,17 +120,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -139,16 +136,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,60 +391,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>135467</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC476EFE-1159-B546-BCE8-41D3361E10C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2225040" y="2143760"/>
-          <a:ext cx="1202267" cy="209973"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>169334</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -496,23 +445,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663574</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>949700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>835399</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>250825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F39341-CA92-1746-9B82-9144C5B96872}"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C178DC-39BB-2B46-A160-AD042A24B326}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -520,14 +469,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3098800" y="3308350"/>
-          <a:ext cx="175000" cy="254000"/>
+          <a:off x="2149474" y="3314700"/>
+          <a:ext cx="171825" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -563,22 +512,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>663574</xdr:colOff>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>667650</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>835399</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C178DC-39BB-2B46-A160-AD042A24B326}"/>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B231D032-7FB5-DC42-8163-EA34AB965475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -586,14 +535,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2149474" y="3314700"/>
-          <a:ext cx="171825" cy="238125"/>
+          <a:off x="1955800" y="3048000"/>
+          <a:ext cx="197750" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -628,38 +580,146 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>667650</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160865</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>140227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D90AEF-7306-9D4F-B4D2-0ABCB2FDD742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7814732" y="4204227"/>
+          <a:ext cx="8468" cy="240773"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>473317</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF555AA1-2AF7-7041-9E4F-2272170E6B77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="473317" y="2926080"/>
+          <a:ext cx="339483" cy="5951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>831698</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>950604</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>269</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B231D032-7FB5-DC42-8163-EA34AB965475}"/>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0771827-F908-1142-842D-53035ECD44D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1955800" y="3048000"/>
-          <a:ext cx="197750" cy="254000"/>
+        <a:xfrm flipH="1">
+          <a:off x="3155798" y="2540269"/>
+          <a:ext cx="118906" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -694,194 +754,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>160865</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>140227</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>169333</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D90AEF-7306-9D4F-B4D2-0ABCB2FDD742}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7814732" y="4204227"/>
-          <a:ext cx="8468" cy="240773"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>473317</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>172720</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>138031</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF555AA1-2AF7-7041-9E4F-2272170E6B77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="473317" y="2926080"/>
-          <a:ext cx="339483" cy="5951"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>5925</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E7948B-8D6A-5B4D-8301-90F3231E917B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2255520" y="2650067"/>
-          <a:ext cx="1188722" cy="336973"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6198</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>269</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>125104</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>269</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0771827-F908-1142-842D-53035ECD44D1}"/>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6CA892-9CB6-174F-9E28-4D8D372C2D67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2330108" y="2540269"/>
-          <a:ext cx="118906" cy="254000"/>
+        <a:xfrm>
+          <a:off x="2184400" y="2289175"/>
+          <a:ext cx="145625" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -922,23 +820,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>99459</xdr:colOff>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>306024</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBB8543-1B0B-8E4F-8EC0-C6DA9F924DB9}"/>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9C0E0B-ABB6-D14E-A33A-0A971FF439C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,8 +844,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2325784" y="2272229"/>
-          <a:ext cx="99458" cy="255645"/>
+          <a:off x="634999" y="2275404"/>
+          <a:ext cx="306025" cy="252470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -988,23 +886,185 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>707813</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
+      <xdr:colOff>89747</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D15EF5-F96D-2045-BFF0-B2722398939E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1347893" y="2942693"/>
+          <a:ext cx="235374" cy="452440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>782320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5955BF52-85C0-FC49-BEB8-13893B6C4C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1422400" y="2936240"/>
+          <a:ext cx="162561" cy="221827"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>721360</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C340126D-CA2B-6946-8B0B-0C62B9A213B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2214880" y="2387600"/>
+          <a:ext cx="1188720" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6CA892-9CB6-174F-9E28-4D8D372C2D67}"/>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EB3A2E-7B9F-A848-98AA-6465345B5576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1012,8 +1072,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2257425" y="2289175"/>
-          <a:ext cx="72600" cy="254000"/>
+          <a:off x="3276600" y="3048000"/>
+          <a:ext cx="175000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1054,23 +1114,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>634999</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>306024</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>778250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9C0E0B-ABB6-D14E-A33A-0A971FF439C9}"/>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6AD125-BAB5-A443-8400-160AEF8B80FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,14 +1138,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="634999" y="2275404"/>
-          <a:ext cx="306025" cy="252470"/>
+          <a:off x="2927350" y="3054350"/>
+          <a:ext cx="175000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1120,185 +1183,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>707813</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>148693</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>89747</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3550</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>93133</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D15EF5-F96D-2045-BFF0-B2722398939E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1347893" y="2942693"/>
-          <a:ext cx="235374" cy="452440"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>782320</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>91441</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5955BF52-85C0-FC49-BEB8-13893B6C4C01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1422400" y="2936240"/>
-          <a:ext cx="162561" cy="221827"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>721360</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>111760</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C340126D-CA2B-6946-8B0B-0C62B9A213B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2214880" y="2387600"/>
-          <a:ext cx="1188720" cy="518160"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>836446</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F4EF2F-6B57-1C44-A7A5-1757EEAC5C76}"/>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DB88A7-2237-A64A-AA03-1373B46EEB5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,14 +1207,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2235200" y="3810000"/>
-          <a:ext cx="87146" cy="254000"/>
+          <a:off x="3105150" y="3054350"/>
+          <a:ext cx="175000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1348,23 +1249,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>175000</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13600</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EB3A2E-7B9F-A848-98AA-6465345B5576}"/>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA64156B-D61B-854D-84BD-60A210A57369}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,14 +1273,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3276600" y="3048000"/>
-          <a:ext cx="175000" cy="254000"/>
+          <a:off x="2139950" y="3048000"/>
+          <a:ext cx="197750" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1415,37 +1316,37 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>778250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>833916</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>322</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6AD125-BAB5-A443-8400-160AEF8B80FD}"/>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDD0E07-7558-D543-8F8E-59EE1EED1A29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2927350" y="3054350"/>
-          <a:ext cx="175000" cy="254000"/>
+        <a:xfrm flipH="1">
+          <a:off x="3158016" y="2034602"/>
+          <a:ext cx="118906" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1480,38 +1381,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>739491</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1248</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DB88A7-2237-A64A-AA03-1373B46EEB5E}"/>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E0668A-F49E-E443-BC9A-4AA120AC31ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3105150" y="3054350"/>
-          <a:ext cx="175000" cy="254000"/>
+        <a:xfrm flipH="1">
+          <a:off x="4016091" y="1781344"/>
+          <a:ext cx="112657" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1546,38 +1447,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>13600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>740425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4606</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA64156B-D61B-854D-84BD-60A210A57369}"/>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3E339D-F2FF-474D-B2E4-EB701A6638EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2139950" y="3048000"/>
-          <a:ext cx="197750" cy="254000"/>
+        <a:xfrm flipH="1">
+          <a:off x="4017025" y="1530350"/>
+          <a:ext cx="115081" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1613,22 +1514,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>956325</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>714565</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>328976</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>3518</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398D6DA6-509E-8244-A17B-5EF350ED22FD}"/>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A56FC31-5BCE-BD43-9D6A-EF4B8DABA3CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,8 +1537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3282108" y="2272229"/>
-          <a:ext cx="328976" cy="252470"/>
+          <a:off x="3038665" y="1524000"/>
+          <a:ext cx="241453" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1678,23 +1579,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>803444</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>118906</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AB8EBD-1F3C-4840-9AA3-EBF01E2C704B}"/>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84A0CD5-3858-954C-B1A8-47AC6982CF33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,8 +1603,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1484217" y="2272229"/>
-          <a:ext cx="118906" cy="252470"/>
+          <a:off x="1438444" y="1527345"/>
+          <a:ext cx="47456" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1745,22 +1646,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>833916</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>15302</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>952822</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15302</xdr:rowOff>
+      <xdr:colOff>833736</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDD0E07-7558-D543-8F8E-59EE1EED1A29}"/>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2786088-4FF3-E848-A866-8B4C7EE209C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,14 +1669,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3159699" y="2035061"/>
-          <a:ext cx="118906" cy="252470"/>
+          <a:off x="3157089" y="1270180"/>
+          <a:ext cx="118906" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1810,23 +1711,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>956325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>118906</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>618858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>252469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>734398</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E0668A-F49E-E443-BC9A-4AA120AC31ED}"/>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47F2ADB-5149-5F40-9F06-2C2C0616F4FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,14 +1735,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3282108" y="1767289"/>
-          <a:ext cx="118906" cy="252470"/>
+          <a:off x="2104758" y="1268469"/>
+          <a:ext cx="115540" cy="255531"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1876,23 +1777,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>252060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>250018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>872169</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7651</xdr:rowOff>
+      <xdr:colOff>4378</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>250019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="正方形/長方形 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF602749-81B4-114F-89CB-0800C1BB20DF}"/>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2922B9-48BB-124B-8EFF-3767A8246FDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,14 +1801,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3197952" y="1774940"/>
-          <a:ext cx="84157" cy="252470"/>
+          <a:off x="1745037" y="1006201"/>
+          <a:ext cx="586059" cy="252062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1942,23 +1843,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>956325</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>656764</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>118906</xdr:colOff>
+      <xdr:rowOff>3344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>802125</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>3344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3E339D-F2FF-474D-B2E4-EB701A6638EF}"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2425809-732C-034B-B49A-B04A2F88E455}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,8 +1867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3282108" y="1514819"/>
-          <a:ext cx="118906" cy="252470"/>
+          <a:off x="1291764" y="1527344"/>
+          <a:ext cx="145361" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2008,23 +1909,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>841565</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>244818</xdr:colOff>
+      <xdr:colOff>833653</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>3214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>59</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="正方形/長方形 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A56FC31-5BCE-BD43-9D6A-EF4B8DABA3CB}"/>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620F0ABC-DB51-384E-863F-20689E3EA8EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,8 +1933,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2325782" y="1514819"/>
-          <a:ext cx="244819" cy="252470"/>
+          <a:off x="3157753" y="1781214"/>
+          <a:ext cx="118906" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2074,23 +1975,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>688553</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>833914</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9810C7A-C428-D24B-BAB3-AFF044DE4F9C}"/>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D02B14-6C97-4E46-B15C-839A72EE9191}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,8 +1999,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2172770" y="1514819"/>
-          <a:ext cx="145361" cy="252470"/>
+          <a:off x="3930650" y="2032000"/>
+          <a:ext cx="196850" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2140,32 +2041,86 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>145361</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC476EFE-1159-B546-BCE8-41D3361E10C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225040" y="2143760"/>
+          <a:ext cx="1202267" cy="209973"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84A0CD5-3858-954C-B1A8-47AC6982CF33}"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A5FEA6-4F70-6441-B4E3-EED12FDE207C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="635000" y="1514819"/>
-          <a:ext cx="145361" cy="252470"/>
+        <a:xfrm>
+          <a:off x="3143250" y="3308350"/>
+          <a:ext cx="136900" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2206,38 +2161,41 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>826265</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>945171</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7650</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2786088-4FF3-E848-A866-8B4C7EE209C5}"/>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2952A2C-387A-7544-9A86-FF11B5CF3CCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3152048" y="1269999"/>
-          <a:ext cx="118906" cy="252470"/>
+        <a:xfrm>
+          <a:off x="1974850" y="3308350"/>
+          <a:ext cx="175000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2272,38 +2230,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>726808</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>252469</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4148</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3550</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47F2ADB-5149-5F40-9F06-2C2C0616F4FA}"/>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9F2060-9859-D546-9709-4E28C1AE0651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2211025" y="1262349"/>
-          <a:ext cx="118906" cy="252470"/>
+        <a:xfrm>
+          <a:off x="3105150" y="2794000"/>
+          <a:ext cx="175000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2338,38 +2296,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>604398</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>252469</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>723304</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>765550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="正方形/長方形 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C7E2C9-CC34-B044-B2DF-2801AC777D5C}"/>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C228D808-EF88-3044-92CE-C04993C8D31E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2088615" y="1262349"/>
-          <a:ext cx="118906" cy="252470"/>
+        <a:xfrm>
+          <a:off x="2914650" y="2800350"/>
+          <a:ext cx="175000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2405,22 +2363,76 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>527891</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7652</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E7948B-8D6A-5B4D-8301-90F3231E917B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2255520" y="2650067"/>
+          <a:ext cx="1188722" cy="336973"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2922B9-48BB-124B-8EFF-3767A8246FDE}"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE72A72-9DA8-4C49-BFB1-E15D1C671E0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2428,14 +2440,83 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1491867" y="1017531"/>
-          <a:ext cx="520241" cy="252470"/>
+          <a:off x="3778250" y="2286000"/>
+          <a:ext cx="349250" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>726808</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>252469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4148</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351D4159-DE3C-C245-9C78-36052E397F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2212708" y="1268469"/>
+          <a:ext cx="115540" cy="255531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2770,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D6086A-5A36-2647-9BEA-DE6229B37F19}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2785,89 +2866,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
